--- a/data/sequence_samples.xlsx
+++ b/data/sequence_samples.xlsx
@@ -1321,7 +1321,7 @@
     <t>B73</t>
   </si>
   <si>
-    <t>https://github.com/SMBP-lab/Body-fluid-identification-proteomics/blob/main/data</t>
+    <t>https://github.com/SMBP-lab/Body-fluid-identification-proteomics/raw/main/data</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11277,7 +11277,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E194" r:id="rId2" display="https://github.com/SMBP-lab/Body-fluid-identification-proteomics/blob/main/data"/>
+    <hyperlink ref="E3:E194" r:id="rId2" display="https://github.com/SMBP-lab/Body-fluid-identification-proteomics/raw/main/data"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
